--- a/modeling/lab4/calc.xlsx
+++ b/modeling/lab4/calc.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isobolev/Desktop/itmo/itmo-4course/modeling/lab4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D3CEF2-3579-AD40-B505-89CEBEA6AA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D25344-087D-1644-81E8-E3EC1593F874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" xr2:uid="{251FF9D4-DF5B-9440-88AF-CBD854A9161E}"/>
+    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" activeTab="3" xr2:uid="{251FF9D4-DF5B-9440-88AF-CBD854A9161E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$A$13:$BB$13</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$A$7:$BB$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$A$13:$BB$13</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$A$7:$BB$7</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet4!$H$1:$J$1</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet4!$H$2:$J$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>b1</t>
   </si>
@@ -67,15 +68,40 @@
   <si>
     <t>a4</t>
   </si>
+  <si>
+    <t>У1</t>
+  </si>
+  <si>
+    <t>У2</t>
+  </si>
+  <si>
+    <t>У3</t>
+  </si>
+  <si>
+    <t>У4</t>
+  </si>
+  <si>
+    <t>Сеть</t>
+  </si>
+  <si>
+    <t>Гиперэкспонента</t>
+  </si>
+  <si>
+    <t>Эрланг</t>
+  </si>
+  <si>
+    <t>Экспоненциальная</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,8 +109,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,8 +155,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -106,15 +170,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,7 +896,1855 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Производительность</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$H$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Экспоненциальная</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Гиперэкспонента</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Эрланг</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$H$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.7999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2000000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-61C1-454D-8636-AEE417416E46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1041898128"/>
+        <c:axId val="1042040688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1041898128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1042040688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1042040688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1041898128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> загрузки от среднего времени обслуживания</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.23799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3FA8-EC4D-840B-07DB3335FF41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-3FA8-EC4D-840B-07DB3335FF41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83899999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-3FA8-EC4D-840B-07DB3335FF41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-3FA8-EC4D-840B-07DB3335FF41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2109999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-3FA8-EC4D-840B-07DB3335FF41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1786289744"/>
+        <c:axId val="1785923072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1786289744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1785923072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1785923072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1786289744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> загрузки от количества обслуживающих приборов</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.23799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3BEB-4B44-8A6E-03A48255C324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3BEB-4B44-8A6E-03A48255C324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3BEB-4B44-8A6E-03A48255C324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3BEB-4B44-8A6E-03A48255C324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.964</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.823</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7719999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3BEB-4B44-8A6E-03A48255C324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1786289744"/>
+        <c:axId val="1785923072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1786289744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1785923072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1785923072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1786289744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1296,6 +3300,1541 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1321,6 +4860,131 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D903CD-8689-A47D-0D54-3D97E505A96B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D78FA0-07FB-C6B1-6C63-2CBE0BA3AFA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F001339C-9096-A94E-890B-CDD6D3DF9AD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1656,8 +5320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9A0573-BE8F-EA4A-9EDB-7923341E0BDE}">
   <dimension ref="A1:BJ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2087,7 +5751,7 @@
         <v>1.1613248016204016</v>
       </c>
       <c r="AY8">
-        <f t="shared" ref="AY8:BJ8" si="4">$B1*(1+AX14*(AY$7-1))</f>
+        <f t="shared" ref="AY8:BB8" si="4">$B1*(1+AX14*(AY$7-1))</f>
         <v>1.1611702570306892</v>
       </c>
       <c r="AZ8">
@@ -2305,7 +5969,7 @@
         <v>35979.610228594582</v>
       </c>
       <c r="AY9">
-        <f t="shared" ref="AY9:BJ9" si="8">$B2*(1+AX15*(AY$7-1))</f>
+        <f t="shared" ref="AY9:BB9" si="8">$B2*(1+AX15*(AY$7-1))</f>
         <v>37464.749331423816</v>
       </c>
       <c r="AZ9">
@@ -2523,7 +6187,7 @@
         <v>17.151151746601574</v>
       </c>
       <c r="AY10">
-        <f t="shared" ref="AY10:BJ10" si="11">$B3*(1+AX16*(AY$7-1))</f>
+        <f t="shared" ref="AY10:BB10" si="11">$B3*(1+AX16*(AY$7-1))</f>
         <v>17.140781454546961</v>
       </c>
       <c r="AZ10">
@@ -2741,7 +6405,7 @@
         <v>22.290419951447387</v>
       </c>
       <c r="AY11">
-        <f t="shared" ref="AY11:BJ11" si="14">$B4*(1+AX17*(AY$7-1))</f>
+        <f t="shared" ref="AY11:BB11" si="14">$B4*(1+AX17*(AY$7-1))</f>
         <v>22.238695483267438</v>
       </c>
       <c r="AZ11">
@@ -3621,7 +7285,7 @@
         <v>49.932999108565092</v>
       </c>
       <c r="AY15">
-        <f t="shared" ref="AY15:BJ15" si="152">$E$2*AY13*AY9</f>
+        <f t="shared" ref="AY15:BB15" si="152">$E$2*AY13*AY9</f>
         <v>50.934485941179801</v>
       </c>
       <c r="AZ15">
@@ -3839,7 +7503,7 @@
         <v>1.4281562909093921E-2</v>
       </c>
       <c r="AY16">
-        <f t="shared" ref="AY16:BJ16" si="156">$E$3*AY13*AY10</f>
+        <f t="shared" ref="AY16:BB16" si="156">$E$3*AY13*AY10</f>
         <v>1.3982053651994012E-2</v>
       </c>
       <c r="AZ16">
@@ -4057,7 +7721,7 @@
         <v>4.9495923385210742E-2</v>
       </c>
       <c r="AY17">
-        <f t="shared" ref="AY17:BJ17" si="160">$E$4*AY13*AY11</f>
+        <f t="shared" ref="AY17:BB17" si="160">$E$4*AY13*AY11</f>
         <v>4.8374711382044251E-2</v>
       </c>
       <c r="AZ17">
@@ -4079,7 +7743,7 @@
         <v>-33.262810960943334</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20:BJ20" si="161">((B13/C13) - 1)*100</f>
+        <f t="shared" ref="B20:BB20" si="161">((B13/C13) - 1)*100</f>
         <v>19.096821362889017</v>
       </c>
       <c r="C20">
@@ -4290,6 +7954,441 @@
         <f t="shared" si="161"/>
         <v>#DIV/0!</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB609BB6-3E52-204D-96C5-B1C66CDC9791}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="B1" s="10">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="C1" s="10">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="D1" s="10">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E1" s="13">
+        <f>SUM(A1:D1)</f>
+        <v>2.823</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>13.178000000000001</v>
+      </c>
+      <c r="B2" s="12">
+        <v>28.937999999999999</v>
+      </c>
+      <c r="C2" s="12">
+        <v>3.0430000000000001</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="E2" s="13">
+        <f t="shared" ref="E2:E3" si="0">SUM(A2:D2)</f>
+        <v>45.16</v>
+      </c>
+      <c r="H2" s="9">
+        <v>2.823</v>
+      </c>
+      <c r="I2" s="9">
+        <v>2.8889999999999998</v>
+      </c>
+      <c r="J2" s="9">
+        <v>2.8239999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>6.9610000000000003</v>
+      </c>
+      <c r="B3" s="12">
+        <v>109.17700000000001</v>
+      </c>
+      <c r="C3" s="12">
+        <v>38.286000000000001</v>
+      </c>
+      <c r="D3" s="12">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E3" s="13">
+        <f t="shared" si="0"/>
+        <v>154.47300000000001</v>
+      </c>
+      <c r="H3" s="11">
+        <v>45.16</v>
+      </c>
+      <c r="I3" s="11">
+        <v>45.216000000000001</v>
+      </c>
+      <c r="J3" s="11">
+        <v>45.156999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="11">
+        <v>154.47300000000001</v>
+      </c>
+      <c r="I4" s="11">
+        <v>290.02600000000001</v>
+      </c>
+      <c r="J4" s="11">
+        <v>148.548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="9">
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="I5" s="9">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="J5" s="9">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFF534D-F7C5-C14B-83F8-4FA1A432489B}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F2" s="7">
+        <f>SUM(B2:E2)</f>
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="E3" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F3" s="7">
+        <f>SUM(B3:E3)</f>
+        <v>1.5309999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="15">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" ref="F4:F7" si="0">SUM(B4:E4)</f>
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="E5" s="15">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F5" s="7">
+        <f>SUM(B5:E5)</f>
+        <v>1.986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="15">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="E7" s="15">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2109999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B685A4-2853-FD45-9EE6-85A8029EA8D7}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="10">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F2" s="7">
+        <f>SUM(B2:E2)</f>
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="E3" s="12">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F3" s="7">
+        <f>SUM(B3:E3)</f>
+        <v>1.964</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="12">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" ref="F4:F6" si="0">SUM(B4:E4)</f>
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="E5" s="17">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F5" s="7">
+        <f>SUM(B5:E5)</f>
+        <v>2.823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="E6" s="12">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>2.7719999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/modeling/lab4/calc.xlsx
+++ b/modeling/lab4/calc.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isobolev/Desktop/itmo/itmo-4course/modeling/lab4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D25344-087D-1644-81E8-E3EC1593F874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2FC7A6-43F0-EC41-8875-8A45EDCD8984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" activeTab="3" xr2:uid="{251FF9D4-DF5B-9440-88AF-CBD854A9161E}"/>
+    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" activeTab="2" xr2:uid="{251FF9D4-DF5B-9440-88AF-CBD854A9161E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet4!$H$1:$J$1</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet4!$H$2:$J$2</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet5!$A$28:$D$28</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet5!$A$29:$D$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>b1</t>
   </si>
@@ -91,6 +92,18 @@
   </si>
   <si>
     <t>Экспоненциальная</t>
+  </si>
+  <si>
+    <t>ЗСеМО</t>
+  </si>
+  <si>
+    <t>РСеМО</t>
+  </si>
+  <si>
+    <t>Экспонента</t>
+  </si>
+  <si>
+    <t>Детерминированный</t>
   </si>
 </sst>
 </file>
@@ -226,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -269,6 +282,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1227,6 +1249,602 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
+              <a:t>Время</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> ожидания</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$1:$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ЗСеМО</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>РСеМО</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$A$2:$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>148.548</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D8F-784B-96A9-51CC5DDAB936}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1011578816"/>
+        <c:axId val="1680706688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1011578816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1680706688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1680706688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011578816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Время ожидания</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$28:$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Экспонента</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Детерминированный</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Эрланг</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Гиперэкспонента</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$A$31:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.2869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.859</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2789999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0619-424A-8A38-616C0904A9A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1007629168"/>
+        <c:axId val="1007131952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1007629168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1007131952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1007131952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1007629168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
               <a:t>Зависимость</a:t>
             </a:r>
             <a:r>
@@ -1923,7 +2541,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -2784,6 +3402,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3804,7 +4502,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3831,8 +4529,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3933,7 +4631,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3965,6 +4663,1012 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -4319,7 +6023,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4921,6 +6625,83 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC73D391-0ED3-FC32-D0C3-2EDCE788BC5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9976673-FBF2-97D9-AE1C-E46693D475B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>692150</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -4958,7 +6739,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7966,7 +9747,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8086,6 +9867,221 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5246BA-B0AC-C24E-B382-722B4FDC392E}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>148.548</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>1111</v>
+      </c>
+      <c r="B5" s="19">
+        <v>500</v>
+      </c>
+      <c r="C5" s="19">
+        <v>50</v>
+      </c>
+      <c r="D5" s="19">
+        <v>5</v>
+      </c>
+      <c r="E5" s="19">
+        <v>2</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1.9</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <f>1/A5</f>
+        <v>9.0009000900090005E-4</v>
+      </c>
+      <c r="B6" s="20">
+        <f t="shared" ref="B6:G6" si="0">1/B5</f>
+        <v>2E-3</v>
+      </c>
+      <c r="C6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="E10">
+        <f>SUM(A10:D10)</f>
+        <v>0.95300000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.128</v>
+      </c>
+      <c r="C11" s="12">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:E13" si="1">SUM(A11:D11)</f>
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>0.217</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0.317</v>
+      </c>
+      <c r="C12" s="12">
+        <v>3.6549999999999998</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>4.2789999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>1243819</v>
+      </c>
+      <c r="B13" s="12">
+        <v>173884</v>
+      </c>
+      <c r="C13" s="12">
+        <v>52049</v>
+      </c>
+      <c r="D13" s="12">
+        <v>17886</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1487638</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="B29" s="9">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>0.184</v>
+      </c>
+      <c r="B30" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>3.2869999999999999</v>
+      </c>
+      <c r="B31" s="11">
+        <v>2.859</v>
+      </c>
+      <c r="C31" s="11">
+        <v>3.0510000000000002</v>
+      </c>
+      <c r="D31" s="11">
+        <v>4.2789999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFF534D-F7C5-C14B-83F8-4FA1A432489B}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -8247,11 +10243,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B685A4-2853-FD45-9EE6-85A8029EA8D7}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
